--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1716023.807581984</v>
+        <v>1772234.305521096</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484438</v>
+        <v>492028.9342484439</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6186090.249245129</v>
+        <v>6195522.405432981</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>38.93543498755517</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>244.0782196120285</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.81938947325714</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>165.555628349738</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>217.5473152562384</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>141.0670894717351</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>39.34122081347544</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>272.8457603870802</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>5.16954626022491</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>248.5652704317918</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.8981232563554</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847732</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6379250432768</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537905</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>309.2588241657146</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1813,19 +1813,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>157.8824880649892</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>39.88277234054631</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>225.8081328485102</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>272.501805010002</v>
       </c>
       <c r="V19" t="n">
-        <v>172.6623007436912</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>161.6379250432768</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>99.28616603324326</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225773</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170514</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2776,10 +2776,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494587</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>56.72042565247699</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3518,7 +3518,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3709,16 +3709,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.6225384818054</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>128.2505517359043</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>219.4201062858552</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3904,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>152.8474034491073</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>151.5162869994151</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>33.08339867820375</v>
       </c>
       <c r="T44" t="n">
-        <v>33.08339867820425</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,13 +4195,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.1526410376675</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>569.2510406336314</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.392307797067</v>
+        <v>535.1489718574587</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.522927011916</v>
+        <v>503.2795910723073</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>473.5452502710065</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381411</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299063</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257658</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2024.668731327731</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1662.051781261557</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1257.196326672591</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>838.0538632519014</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>591.5102070781352</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081493</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547026</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816563</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978179</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400182</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067188</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068842</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>396.2998188068842</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>396.2998188068842</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>396.2998188068842</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>396.2998188068842</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>485.7428345149562</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.04406200893879</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>952.1742697753206</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>274.2399442151644</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.3377699055389</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>320.4362752513499</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>738.6461570193109</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1640.388827357868</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2060.05807658365</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716086</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2103.231844014083</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1857.352397592538</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1578.919396845643</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1291.963888716073</v>
       </c>
       <c r="W4" t="n">
-        <v>726.6741060804052</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="X4" t="n">
-        <v>481.2823514138177</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="Y4" t="n">
-        <v>253.8626807279259</v>
+        <v>1124.735981292096</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1828.476810797182</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>448.5358106104095</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>414.4337418342369</v>
       </c>
       <c r="D8" t="n">
-        <v>1580.920758388652</v>
+        <v>382.5643610490854</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.33908412592</v>
+        <v>352.8300202477847</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4716545351282</v>
+        <v>329.0029946973964</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>952.3456003142296</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>779.7838887974546</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1425.157025666709</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1179.765271000121</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.3456003142296</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689265</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047133</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146356</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111519</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.158956950349</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950349</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174173</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>944.0533615061025</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>771.4916499893275</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>605.6136571908503</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>435.8556534415875</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>259.1485994033437</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111519</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T13" t="n">
-        <v>2554.154217881911</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U13" t="n">
-        <v>2275.721217135017</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111519</v>
@@ -5282,22 +5282,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556613</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884174</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874518</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
         <v>1102.064021433509</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292996</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777441</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284814</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
         <v>490.8893751902377</v>
@@ -5461,25 +5461,25 @@
         <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.379689494032</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.424181364463</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W16" t="n">
         <v>1840.424181364463</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697875</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011983</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985803</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277504</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510143</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423057</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742884</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085326</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655632</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356878</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315472</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252366</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125404</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442421</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376247</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787281</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366592</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126633</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493056</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389742</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818282</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173764</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173764</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173764</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173764</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132057</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033252</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047179997</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687369</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.736746930493</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563207</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860604</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157196</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251571</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327538</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905993</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U19" t="n">
-        <v>2288.704321905993</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2114.297957518426</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1842.271553104718</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438131</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.460127752239</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5832,7 +5832,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
         <v>1107.588885023173</v>
@@ -5890,13 +5890,13 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674083</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>673.1212928181455</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5911,7 +5911,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,22 +5932,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176948</v>
+        <v>2396.40845011473</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430054</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.872751300484</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.846346886776</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
         <v>1600.55729028754</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,13 +6069,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,7 +6306,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883922</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716172</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731399</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238771</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856333</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6388,7 +6388,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6543,7 +6543,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6786,13 +6786,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>1098.710185817962</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>926.1484743011866</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027093</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534467</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152029</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410306</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.948475222841</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536949</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,46 +6941,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2758.053686176684</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477105</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7105,7 +7105,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
         <v>2203.220781338905</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,28 +7181,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7357,25 +7357,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710512</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167234</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1181.319000882661</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094957</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369042</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.960412460168</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033842</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834421</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.07841419448</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410859</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410859</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981165</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814561</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773156</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526212</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710049</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.4755408556</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172617</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517477</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096788</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.352246396441</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218171</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584593</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050126</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319663</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481279</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143118</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909818</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223595</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015802</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1075.444992783078</v>
+        <v>1012.231663489991</v>
       </c>
       <c r="C43" t="n">
-        <v>902.8832812663029</v>
+        <v>839.669951973216</v>
       </c>
       <c r="D43" t="n">
-        <v>737.0052884678257</v>
+        <v>673.7919591747387</v>
       </c>
       <c r="E43" t="n">
-        <v>582.6139718525659</v>
+        <v>504.033955425476</v>
       </c>
       <c r="F43" t="n">
-        <v>405.9069178143221</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G43" t="n">
-        <v>240.3156428401497</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305242</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952141</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663497</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V43" t="n">
-        <v>2012.101441268253</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W43" t="n">
-        <v>1740.075036854544</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.683282187957</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y43" t="n">
-        <v>1267.263611502065</v>
+        <v>1204.050282208978</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G44" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7652,28 +7652,28 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693464</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693464</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.99017326377</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097166</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.79883405576</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.79883405576</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="T44" t="n">
         <v>4803.381259633332</v>
@@ -7719,28 +7719,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P45" t="n">
         <v>1102.064021433509</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1087.134188067672</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C46" t="n">
-        <v>914.5724765508968</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D46" t="n">
-        <v>748.6944837524195</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E46" t="n">
-        <v>578.9364800031568</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F46" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H46" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J46" t="n">
         <v>183.3156618458051</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W46" t="n">
-        <v>1721.468441289274</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X46" t="n">
-        <v>1476.076686622687</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y46" t="n">
-        <v>1278.952806786659</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>527.3158022709888</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.34648051320403</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>226.0938963909744</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>798.067282526511</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9480,10 +9480,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,10 +10191,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10434,16 +10434,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049995</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,10 +11063,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365290842</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,10 +11300,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>185.1957776566191</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>10.96843159933636</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>141.6500182959533</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>122.448028004997</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.0111327346204</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>49.73195639979713</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>117.7661826744365</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>178.3951296148329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>3.146865729423723</v>
       </c>
       <c r="V19" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>81.78272691405246</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.6516710866784</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>81.78272691405223</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25597,16 +25597,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.52293549722742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>89.61600311978744</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>184.7831561774879</v>
       </c>
     </row>
     <row r="42">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15.21302026266283</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>23.42369649844619</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>49.73195639979761</v>
       </c>
       <c r="T44" t="n">
-        <v>184.7831561774875</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.146865729424555</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.99283294136526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>542279.4664857597</v>
+        <v>543783.689960806</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542279.4664857597</v>
+        <v>544773.7668972932</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>542279.4664857597</v>
+        <v>544773.7668972932</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518418.599991156</v>
+        <v>518418.5999911561</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>525733.9906257461</v>
+        <v>540296.4573170623</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>532981.0666824725</v>
+        <v>518418.5999911561</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518418.5999911561</v>
+        <v>518418.599991156</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="C2" t="n">
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="E2" t="n">
         <v>379142.9234787573</v>
@@ -26326,31 +26326,31 @@
         <v>379142.9234787573</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.9988650086</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="L2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>389793.1127167628</v>
+        <v>379142.9234787573</v>
       </c>
       <c r="P2" t="n">
         <v>379142.9234787573</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.0349374594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284872</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996504</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256748</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393356</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>143235.6821366789</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26430,7 +26430,7 @@
         <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
-        <v>13861.25833407847</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26451,10 +26451,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049263</v>
       </c>
       <c r="O4" t="n">
-        <v>14052.3313770625</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="P4" t="n">
         <v>13668.38414064833</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696285</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024163</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319843</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25194.16125576315</v>
+        <v>-814.0396835284046</v>
       </c>
       <c r="C6" t="n">
-        <v>167385.4619154731</v>
+        <v>174577.077193454</v>
       </c>
       <c r="D6" t="n">
-        <v>167385.4619154731</v>
+        <v>205767.1121309135</v>
       </c>
       <c r="E6" t="n">
-        <v>57600.17503842403</v>
+        <v>130143.5632955502</v>
       </c>
       <c r="F6" t="n">
-        <v>291955.1970604614</v>
+        <v>291878.6385056646</v>
       </c>
       <c r="G6" t="n">
-        <v>289379.1846878398</v>
+        <v>284227.9916251817</v>
       </c>
       <c r="H6" t="n">
-        <v>290776.988946764</v>
+        <v>303156.5195873463</v>
       </c>
       <c r="I6" t="n">
-        <v>303179.743926729</v>
+        <v>303156.5195873463</v>
       </c>
       <c r="J6" t="n">
-        <v>192165.2785817389</v>
+        <v>153764.9231616715</v>
       </c>
       <c r="K6" t="n">
-        <v>303179.743926729</v>
+        <v>278309.5828034127</v>
       </c>
       <c r="L6" t="n">
-        <v>303179.743926729</v>
+        <v>303156.5195873464</v>
       </c>
       <c r="M6" t="n">
-        <v>107578.5646436612</v>
+        <v>168166.574974343</v>
       </c>
       <c r="N6" t="n">
-        <v>303179.743926729</v>
+        <v>303156.5195873464</v>
       </c>
       <c r="O6" t="n">
-        <v>299426.5452565019</v>
+        <v>291878.6385056646</v>
       </c>
       <c r="P6" t="n">
-        <v>291955.1970604614</v>
+        <v>291878.6385056645</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267132</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631553</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517844</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517844</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517844</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>394.8256131008558</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>160.1250428513146</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>143.0167049283502</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>103.7505120198334</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>183.2595847868386</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>26.99333424003498</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>392.2094661638245</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>124.5380926758885</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>159.0496666102676</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>527.3158022709888</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.34648051320403</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>226.0938963909744</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,13 +35893,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>798.067282526511</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36756,10 +36756,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,10 +36911,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37002,13 +37002,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37154,16 +37154,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37236,16 +37236,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049995</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365290842</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,10 +38020,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
